--- a/doors-detector/results/house7_experimentk_CriterionType.MIN_0.75.xlsx
+++ b/doors-detector/results/house7_experimentk_CriterionType.MIN_0.75.xlsx
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7433960978799804</v>
+        <v>0.7161315302850788</v>
       </c>
       <c r="F5" t="n">
         <v>520</v>
       </c>
       <c r="G5" t="n">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H5" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="F6" t="n">
         <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5577287216768649</v>
+        <v>0.5658672509015281</v>
       </c>
       <c r="F7" t="n">
         <v>124</v>
       </c>
       <c r="G7" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" t="n">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7752919269400348</v>
+        <v>0.7885707183640401</v>
       </c>
       <c r="F8" t="n">
         <v>520</v>
       </c>
       <c r="G8" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2285714285714286</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="F9" t="n">
         <v>14</v>
@@ -728,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5765796276452532</v>
+        <v>0.5682541133047402</v>
       </c>
       <c r="F10" t="n">
         <v>124</v>
       </c>
       <c r="G10" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H10" t="n">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7679793153481411</v>
+        <v>0.7519477141126949</v>
       </c>
       <c r="F11" t="n">
         <v>520</v>
       </c>
       <c r="G11" t="n">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H11" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2285714285714286</v>
+        <v>0.2428571428571428</v>
       </c>
       <c r="F12" t="n">
         <v>14</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5604626774656866</v>
+        <v>0.5454778678937872</v>
       </c>
       <c r="F13" t="n">
         <v>124</v>
@@ -856,7 +856,7 @@
         <v>112</v>
       </c>
       <c r="H13" t="n">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7553865832168913</v>
+        <v>0.7424658407694831</v>
       </c>
       <c r="F14" t="n">
         <v>520</v>
       </c>
       <c r="G14" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H14" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5094991605813532</v>
+        <v>0.534352750689924</v>
       </c>
       <c r="F16" t="n">
         <v>124</v>
       </c>
       <c r="G16" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" t="n">
-        <v>325</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7729824608267943</v>
+        <v>0.7819137295842827</v>
       </c>
       <c r="F17" t="n">
         <v>520</v>
       </c>
       <c r="G17" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H17" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2714285714285714</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="F18" t="n">
         <v>14</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5929600753107503</v>
+        <v>0.5605675604810325</v>
       </c>
       <c r="F19" t="n">
         <v>124</v>
@@ -1048,7 +1048,7 @@
         <v>109</v>
       </c>
       <c r="H19" t="n">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20">
@@ -1071,16 +1071,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.7543735522398863</v>
+        <v>0.772455988209658</v>
       </c>
       <c r="F20" t="n">
         <v>520</v>
       </c>
       <c r="G20" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H20" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3224489795918367</v>
       </c>
       <c r="F21" t="n">
         <v>14</v>
@@ -1112,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5632247796295665</v>
+        <v>0.5826211269599969</v>
       </c>
       <c r="F22" t="n">
         <v>124</v>
       </c>
       <c r="G22" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H22" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23">
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.7335757601878961</v>
+        <v>0.7451950431145431</v>
       </c>
       <c r="F23" t="n">
         <v>520</v>
       </c>
       <c r="G23" t="n">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H23" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3098944706087563</v>
+        <v>0.341281512605042</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
@@ -1208,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1231,16 +1231,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.5881772472146684</v>
+        <v>0.5271833654989005</v>
       </c>
       <c r="F25" t="n">
         <v>124</v>
       </c>
       <c r="G25" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H25" t="n">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
@@ -1263,16 +1263,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.7184578022289239</v>
+        <v>0.7508232037456478</v>
       </c>
       <c r="F26" t="n">
         <v>520</v>
       </c>
       <c r="G26" t="n">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="H26" t="n">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -1295,16 +1295,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2622448979591837</v>
+        <v>0.346938775510204</v>
       </c>
       <c r="F27" t="n">
         <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -1327,16 +1327,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.5982326851333294</v>
+        <v>0.6520273998137787</v>
       </c>
       <c r="F28" t="n">
         <v>124</v>
       </c>
       <c r="G28" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H28" t="n">
-        <v>282</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
